--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/31_Erzurum_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/31_Erzurum_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D466DB-F356-441A-9ED2-0CBE3DD25345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B8E0AA-93D3-47FF-A7C2-3306E6B8C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{4DC5B594-4545-414E-AC1C-B830BD777432}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{39FD7C3A-1259-4540-9209-F74A1FC9AAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B0ECF46F-6457-4CA0-BBD5-4E780D6CC1D2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C66DBCB3-D135-4E09-A5CA-7581E41D8F97}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E7C87971-B2A1-46FF-A891-2EBF0D4C6C72}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{265521C1-B775-4AF6-AB3C-718740D5D536}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EE79A233-052C-4642-87F0-D579515851B1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{86D6C46B-280D-4915-84EC-A331C74D6E87}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{40CCEDA5-BA5A-4E41-837C-BD53A7BE0E62}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{622D3694-40C1-44D1-8A55-572551D74A7F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{447CA5F3-17F3-41F4-9A9C-12CED64E5BFA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{04531EC3-85E7-4478-8471-381CABCF542B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{08E6F248-9B2F-4A6E-B9BC-1F511EAC7669}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8726C0CB-C315-40EA-88EB-DAC5CCB91141}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CB744D59-71E4-4CE5-BF7C-DF77246260AB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{68971E25-BCAF-49E9-9143-E1562A03EEB3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A041E-B3D4-425D-8951-37D5E1896CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299FE393-DEA9-41D8-9FCE-2F680D89BF66}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2552,18 +2552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F59AC5A0-750C-42B4-90D6-97C26A911BEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA128E74-3509-4CE0-BC03-F0496E1147D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{451215F8-1245-4EB0-BBC5-50497DFD84B0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5307CB2-E58C-4F53-B14A-A02317C835A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{052D9710-E622-4D7F-B392-B830A8BA78BA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09DF11AA-4EE8-4DB6-86A9-DFA35DB2A297}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEA1B54C-F484-4FBE-B6DC-334D028EA61E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DF84779-E884-4643-A672-00C774C9AD32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD380336-FAED-4855-A7E4-93A7C62E3907}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{783E4973-B486-4112-BE68-AFA2D1C8E9D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE1722D4-BF35-4D6A-BC3E-ECD2E9D51D27}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B474ADB5-24B9-474B-9C4F-91C049630961}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5313A954-416C-47F7-94C5-ADE67431AA59}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28762295-0A9D-434D-A6FA-37AD0B8B4B67}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA7B6E77-E3C0-4FF0-BE1F-D674F4E41D5F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0871E738-90FC-427D-8098-B0A63BE6FEBE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B86F07A5-F079-4FCF-B485-64ED442776F4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2021733A-CB16-44A4-8642-304312EC7CEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF2761CD-DEEC-498A-8FB1-0251545DFDA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3204BB7-FA9B-4812-80C2-106E6C17FBEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9295B44-066C-4590-9CB0-3305F80C35BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8683737E-1040-498F-95BB-5DE3146C5B28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23DE4EFA-3BD8-4482-B479-FBC22CABC4C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F23EED5-DDDB-4952-9473-6384C850704B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BB83F-ACB9-4FDF-A8BB-358E756B2573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36614B96-8962-494A-8946-2177C95D51D7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3788,18 +3788,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{965DC31F-1E91-4E0E-B273-B492D4F6B7F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E71E348-8D1D-4D44-9E6F-B9D1FFB9C62C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3FB52F98-F7B3-49D9-A3C6-AE3BD9D36112}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B77E3FE4-6B62-4982-9637-C07177C62F56}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56862C35-15D5-4DF1-9F8D-EA324D568C31}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA8DF0DB-EC6E-46FD-A639-C0FDB247CB41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6077073E-17F4-4DD1-B653-2D872405B1FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33A638BE-0346-48F3-8FC4-64325EC0891B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1495D984-70AA-456A-B478-02C853CAC5E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D036D3F-4F7D-4D21-A81F-5DD48A50F8A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32E5E1FA-B22A-4064-895C-576536C44942}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82CF4B95-4447-4D3D-BD53-159CCD0D80C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCE3031B-1107-4BF3-A5B1-2305C000AFCB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46530BBA-85CD-461C-A356-381773C877CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{76FDF193-584B-4798-BDCC-4066858D140E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{104E2388-754B-42F4-9BC9-DBEEC3384CA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AFDF2ED-E1E3-4080-A15A-7D69EB93DDF8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{076DF447-963B-4C62-B59E-484FDCB5FC8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2E82040-38F7-4011-BE3B-1D49F55AC75B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B35A7C33-4972-4EAA-8674-CE5BAAB2CCC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C7ADA66-5813-48BC-82A2-540E6E9C0EF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFE577B7-16CE-487C-9C80-2A5A9C584AF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC7B159F-007C-4AA4-9B71-2655608EC2B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7854B4B-22C4-449E-BADD-22327F59FBE3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3812,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A4606-4441-40ED-A397-3A319B997AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB0A5D9-073F-4C2C-ABB3-58A28E677583}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5008,18 +5008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89CE4766-F23B-44DB-8AD0-9E800C1F22EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56386EEA-B85A-427C-B12E-D533D3040887}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4FF95496-D187-4302-91C4-4C9A18C08D4E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7E9C151-CB34-4258-BCC0-F53F0C32342B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF054481-131E-4C61-A3EA-D9694A539703}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4E63DCB5-7674-4684-AF9C-99D0ECE05F14}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{517EEDB5-71F2-48AA-8435-3CDDCFDCA4E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5433FEB5-0310-4EFF-AE5D-AF191D9EE2BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02CE6617-6D81-403D-A71E-49ED0C318A6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AE1E1D5-3679-43DA-AB6C-78E9E943C136}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ECB84CF-36B7-49C1-BE9E-EE880FDE3820}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4196C038-28CC-4EF6-B8E8-C0A200C8D4DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07FF7791-02E9-4F5D-B334-2D2134A5E7B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C88161B-7809-4038-BCC1-5B67AEC8C8EF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84EC943B-57EA-4208-BB03-DC4E23306281}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2F89233-446C-48CE-B25C-B7989220FBE6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{708BF92F-0199-4F15-8EDC-2CCE5F50D4A9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0927694C-AA1A-4DD9-BB15-1DA44A31CEA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58F9442F-59CC-46F4-8381-F1018AFE2B77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EE1DD89-1DAE-4950-8017-91D396681241}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEE6E702-9E7C-459B-BF60-090CE0A3E8F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{241C5BB4-7A3B-4BB9-B8A7-47E15477D2B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{520B3E09-4D0F-46D2-965C-6F60F19E0FFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE0FD782-D775-421D-9FF1-98B8718B967E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5032,7 +5032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A18E2F-20B0-48E5-A9F7-44780944D07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE601A1-2ABD-4B22-BFFA-87F99DABC6A4}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6222,18 +6222,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3B6DFC1-A03F-408B-A841-64CE2F474D94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBB95562-85A3-40C7-A924-F5B17F660F15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{83ECCF49-50A3-46F7-AF07-0AEA1C3D7238}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E51DDAE-B0B8-4277-8E4F-4DCE2AC7297E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26698784-DF29-4206-B73C-86C20DD4D08C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB44D596-DB5E-44F0-90D6-D5724A900FA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F17852A-C81A-4F9B-AA43-1887428C0934}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C2D3928-2A8C-46D6-926F-8339A3B4D28C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71EA50FF-E045-4D86-B5CE-D94FC959503A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AAAAAE1-0615-4CA1-86AA-A9BFE948B459}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23D484E4-9CB8-4070-A142-E58EC62F2A59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{732029EF-58D5-445D-ACEE-90DA0B07AD51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{130BB082-623C-48A0-8D90-003E521A5389}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA05596F-6290-44BF-B20E-D4811FEFCDE1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38A6C8C9-A2EC-4AAD-AC4A-75FDBE5CF1EA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4CCC29B-91AC-451D-8320-7C549336FD55}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{623A8D46-A077-454B-A91B-2B4731A0D5E6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F831DFAC-98EA-41E0-BB15-F3313EED2BD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9363A04-0BA6-4FA6-AE4B-91796752D767}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01CCF820-1673-472B-A93E-6C593B553652}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C344FE65-C743-41C1-9F0C-E137B0176283}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9046F47F-6810-4335-89FF-804179EA1EF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CE4E3AC-F896-4271-93A9-B923A5AA7D6C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF249DD4-C70A-4058-B790-B6BD7AAACF2D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6246,7 +6246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3ECABF-4DD9-491E-A2BA-A144AA3A52F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BADBF46-4CA1-46EC-9BA2-3A73E2D4DE1C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7485,18 +7485,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67830ADC-3004-4F8D-B010-B48E47A1F2D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33202326-3239-450A-ACFC-9EA4D7FF986C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BF2EAEA-F8AE-49EF-8328-2FF3461924DD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9D70CFC-6743-4A9F-8BB0-533CD656CA72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9D7ACA7-D1D9-42B3-B898-766B78267FA1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE5FD0DF-43E2-4B75-8ED5-2C791CF3CAA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EECCCA91-92F6-4D20-AA3D-7BAB8B72562E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D79F5B8-C59B-42A2-BF47-C86897717F1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2C2A368-5C9D-435B-BE1D-34A55448A4E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{051F3211-C9ED-488B-9820-C48D0509D6C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38072529-AB1F-4FFD-B164-ED767E1A6B37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C932BB1D-F2BD-43B9-93B4-2DD71743BD0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AEFD32B-7D79-4C36-8608-993B689C2FA0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A491D325-1AF8-4F2A-952E-1AC32F5F6C16}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{325366F6-C6DA-4987-A349-D201A37F591F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E4102E1-9AFC-4F57-B40B-787D227616BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97E9F003-6F5B-42B9-A4C0-8D80862AE71D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E795343-AEB2-4ABD-AA6C-E7EF9E6ED2DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95A66B8C-806B-4434-AB2E-4870A81E0A14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAAFBCB4-9504-4DE7-AC08-10DBB6D97217}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA30BB81-8F42-4D53-9B4A-3C13E3A07BB1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{604525C0-0B9E-4F53-948D-F2E8C7FA4A6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E74BA3D-2761-4636-905E-89BC0D1C5A7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78F63FCB-6BB1-4828-A9F4-7C367A01932A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7509,7 +7509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32B8561-552C-471C-923B-F3A795149F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14746775-EF73-4637-8F6B-BA4D943CAEFC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8748,18 +8748,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C97E98DA-D0EA-4993-A791-6B4CFA3FFC9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA8CC494-6A3F-4CAA-B6FB-21AF84C3C3D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BCFB016A-98F8-4155-9360-7058BD2A2140}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E10A986-E43B-4968-BBB7-B0E22F6D5893}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01A01A8D-DD60-4B4B-9A72-3B79D456AF2C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{578A152B-700D-4718-9E6B-55FD7E562545}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1C7C519-9098-42C7-84C1-F999EB1CF853}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E14C90F-FFE7-401D-81DE-376CAF237B95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80087431-8D33-4D03-B161-6010F203CA2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBD99620-7D62-482B-987D-64F524F7C877}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{976CF5E6-9117-488C-9485-5C437EE923A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76AFA5B5-5B06-425E-9017-FAC83C3E9F15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21FFDB59-1D11-46A5-A69B-757E48458AF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A0E124E-D572-4BA7-A907-C5BA8431CB2E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24FE8198-221D-40DF-8FE1-799E8CEFDD6D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5F82E51-00B9-4F34-B7EB-AA2A6AC12902}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{598A2027-A2CA-419B-9F43-3D737D6400B8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7BF493AC-56E9-4E8F-96C6-2AD178DE5D22}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C3442BB-2D47-4E24-B5C9-82AC9D4AED69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A25AC75-C0D7-40AF-86A4-DA9D1F914A03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D0BECD0-0A59-4587-98DF-78509FDEB15A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84F6A340-4051-4C4F-96B8-1B48294E5AF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF5BE6D3-7BDC-4037-876D-29433F2FA878}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E86AD3C-1375-49B8-9256-069A0758376B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8772,7 +8772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0E998E-CB62-4222-8A18-027D53B6D819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C005B2-6D71-4B93-BA53-9B42E776298D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10011,18 +10011,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EED193A4-B59F-4CA8-91AC-5CBFE7A36F85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{472103EA-87A1-4963-8646-394B899F8BB2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61CFCAA1-05C7-42BA-9D5D-24CECC097B3D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE24085E-0049-467C-BB40-99999E3722C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3534966-B205-4035-88FA-0D339DA328D3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B30C254-B785-449A-B843-19C98A019D4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFC921BF-DE12-472B-B999-B3C906565523}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2971BFB-1258-4125-B246-A1434B1CF005}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E576A0D8-BFB5-481C-BF58-3EDAB36F54EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01B51A80-0C47-4008-B24E-142569387F78}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7D7B98C-E9F7-40D5-B0E9-A989F535279D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82DC8ED7-B61A-4873-B831-864D76F0068C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D3554A5-ACB8-4684-BCAD-8F27B69261C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE42801F-7464-4777-80A1-355D6A84861A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59D5690B-61FC-4750-8EA5-12280FF6AE2B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA7F7295-2F2D-42C1-B1C3-2384E1E58E34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8629A85-B23F-40AC-BB86-79FE1B12B260}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0918E309-A4DA-4C50-BA6C-EB78EEB76F9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EF11283-B441-47B6-9460-95DE43C6E395}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4523D318-89CF-43C1-ACF9-A82EB43CBC2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B03D59FD-758D-42D6-9B56-4DD29C1DCB68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAC5BBF6-A047-4415-8C5E-97518D2A7C98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C5AC0B3-984D-4E1F-9600-87DEC7AF7324}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2DBB80B2-3D43-4EC4-AAEE-662BDD6F573C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10035,7 +10035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A350365-9058-4731-B39D-1502A53D88E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE44B1D4-CAD9-4986-A893-814D2E6B5B60}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11275,18 +11275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51F33ABD-9958-42CA-B196-46E81263FC63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CDBF1F8-2A95-4396-A3EF-0E629643B3BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64500401-24FE-4232-8D79-0CDA69E663AD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C0D5A87B-64FD-4DA9-A786-F795C7696DEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE8A7DD4-2E40-4F18-94A5-AA6E49F4DA45}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7237C496-15BF-4543-9E2D-1493A6054036}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B600FC9-FA2D-48D6-BE59-40B2BB1730D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{727678F1-BA43-4EDC-8386-8833C81EE9AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5982C2F6-FB3F-4E27-A631-1D9B49FCFD68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC52990A-A4DA-4487-A002-8741171DBB31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1B6D9D0-5718-4725-86E9-FB62BFD8E9D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D27AFCF-5158-448D-A367-5615704A4BCD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{160337AC-5F28-4015-A7FA-D75C4B947C53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2490BB1D-83F9-4942-831D-36E7E1328B63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97CF72D1-D9FC-4320-9B21-12F70B767C91}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36A59181-21ED-49A5-ADAD-B1CF7EEB4050}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B20D54CC-9F18-4798-A9E0-100DF711A9CB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6EE7EA6D-00B3-4394-8C7E-C10DD2171ED4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F1F8FEB-741C-40B4-BBA4-EBD2C734F866}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51AAAF18-33DE-42AB-BED6-8BA03C6BA5E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB114095-479E-41F0-8C82-7C5F6FFC49AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8949E384-671A-4EAD-BC3E-B2DD020E6778}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6AAAAF7-0473-4528-A4C0-582619BA69A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{308DD83B-1DCF-40B0-9F0E-214138B3E26B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11299,7 +11299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FF19C4-8FDB-4FAE-9450-5B6485DFFC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC01768-2A79-4589-852F-B212D4C3E919}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12531,18 +12531,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{168F5FEF-3357-4ACF-BC0A-A8AE0EECAF70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB0B5909-09C1-44C0-B4A0-4E1424A12DF3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5DEF029-5917-4A70-ADA8-83D23039A01E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4307C89-250E-4ACF-A369-0632EF707528}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{639D44DE-9453-41CA-92FA-5288E699BEDB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B1E04ACA-0941-4378-AB94-DEC7C345A3A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9DBA8A3-93B7-417E-8182-0EB49E1E20D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E0554E6-B720-4096-A1D4-605213B251FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D13A431-F741-4828-845A-AD96D089D5F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14120C5A-E492-4155-8628-A76C6DF9F624}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7439285-48ED-490F-A27D-65EC7DD4FD95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2197247-C85F-4F72-9E77-FA50FD7132E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9DA4146-B1DA-48E0-831B-DD89A545A77B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2986DEA-A4DB-484E-9857-2B6D194EE30D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72E7C863-79EE-4B4B-B023-C7B8307C23CB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F470BFE-C410-4E29-8DD5-EA43135AEBE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7155A000-E90C-4FCE-AC4A-0268247D5245}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A83E4CD8-9DF6-4BB9-9F49-E6743ADBF58B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE18BE66-3CA0-4C99-B6F0-EA62D6DF50E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60221DB9-428C-4D01-BEA0-8193F5EABF9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF0C76F2-830B-4AE6-B042-F96921F28F16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E363E38-858C-4823-80A8-2075E0FABA94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D642E91-8EDD-4870-84B0-862141969342}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6DECF72-656B-4BD1-A3CC-2ADF69D2F7F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12555,7 +12555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F5D483-D4E4-4060-8481-0F643E0B78AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A271B-0639-4CF0-8545-447C15B9C45C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13783,18 +13783,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97D30BF5-7188-4775-A7BF-62964DFE1035}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26E3DCF6-ECDD-49F2-B6E7-F7E55FA4BBEB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8505B06F-B1BF-4AA7-A082-10133CBFC731}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8506BFF3-3B18-4936-B53E-9AC97A2E42D3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{632F617C-F808-4D45-B807-D902BB70491F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41A916E0-ABC2-44D6-8CAC-1CB31F886658}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10668A65-419A-49F5-8A07-4780AC97403C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{866212CA-8758-4514-86F9-70B747A2A80D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFBE5E2B-2BBB-40D0-8EA6-954E6EFF2706}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93BF9ECC-49FE-48FF-9AC2-644FF7982C2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C3953F6-25E4-4B2B-A97C-B40DC4263E32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7592DCC5-B9B3-4865-B32C-8BFF62CDBACB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{664E5572-6157-4353-8E8A-1D6E12067140}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BD627DA-47C4-46B7-9461-2C1E6B4516AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{429E4640-655C-423F-9DA6-66A84232C62D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90DDD176-5853-4138-BB04-1117CB459F9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FE7141A-C5DD-4008-A226-CB16E572DE27}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{66F5F234-B652-4BD5-B8E6-061AF93AADED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E15C4C74-4790-455C-B051-415D23D01985}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9200ABD-2972-4399-87AF-F77C98E50C2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8E080C0-8A0B-4241-B0C3-A5005F0F72D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E3F8987-C8D0-4B91-902D-20922905936C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{063B938F-2815-4EE0-8D7C-9EEAF5F1CC5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A8A3302-C0F7-426E-8DB1-3AA0A49CE735}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13807,7 +13807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1F0C73-FD07-4061-9535-CF547F1E691E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4F0E1-DCAA-4F1D-B090-81073BC8AAE9}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15035,18 +15035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AA0F956-B208-422C-86FC-8151E8B3F00D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41235414-AAF8-4EB7-A013-5695F3643A0D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8284493F-D26A-42BA-B5FF-8E299B2685CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B8FE857-EC37-42FB-B144-F2E54A5C45C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37427C55-2206-4182-90E2-FFBAABAD7857}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5324F1E-02A7-4898-B13C-DEE6498D4FC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE2BAF38-BCA7-4BE5-9FC4-2B863C68EF3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACD9DAEA-2869-4253-858C-733B0E29A99D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9795AC32-6CC3-4F8B-93C7-D610B8CA9882}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14A6DC79-55CD-48B4-87A9-6D976E18E8AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EC279CD-A9B4-41B0-9A9A-7363BB10873F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0CF7857-EA4C-44DC-BA60-FD6515305063}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32783C72-17AD-4D54-A631-438DB5953B7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71713759-C3BA-4D64-BB85-C843628982D1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B25C78B-1B73-46D0-8E59-AFC6BF1D4359}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B47889C3-6A17-4B9B-A904-44C4E553B739}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FF44096-51E5-41A9-A378-0D187B7607FE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{936D6DB4-87E1-4B7F-AFA4-C34304324BC9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75714CB3-6441-49E0-8658-8EB8366C6C0A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{870C7C0C-7659-41C5-BD2D-2DB1B4CC362F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{581D7D18-063A-43DB-8A23-D127F630E577}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E7785C5-6C33-4D22-9661-92FC6C9461C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9910E33-DB9A-4057-90ED-6ECCDEC4F9C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{512AD102-87F3-405C-AEEE-8F6E152CE999}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15059,7 +15059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270D55C-EDF2-445E-9502-7A25EA45CBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD94BFDC-2C2E-47C0-A6D6-7F4D1F95C8DA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16287,18 +16287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF279A1D-D114-4199-87A5-F686D9FD7494}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F971CE0-242E-4442-AF13-5693F3B9A36B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1124E41E-036D-4AE6-93FC-9606C4B7DC37}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6A5423D1-4329-4C93-AEC7-206A6F83FA66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC96A9A2-61F1-46F0-896F-76BE95088077}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BCD23478-4008-40CC-ABB2-D7FB4A4F826C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E279B6C5-4417-4E71-B429-5A5F5D50985D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCDE9E02-5B94-4401-87D6-685EE4461D59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6B638F7-B815-4DAF-8561-FB78D1ACB861}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D241769D-99E3-4890-9DFC-B0E270B25FE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14A3E609-EF1F-461D-8D13-33985F711C13}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A20E089D-B9BD-400B-8164-8945EDCE906B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6168BAC-4F80-4733-99E2-F4BB3DFE1D8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{785A242C-C042-4C16-B5E5-E4D5BA917798}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2FAE6828-57F8-4FD3-AF93-C6CFC485CDAF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{816B21D9-5465-4325-9922-00F3C952CAA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E95C205-833E-4CF6-A2E0-BCDB3F0BE542}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65A8C333-3E16-4916-AED5-F6041BB59C87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FFEC721-0388-4BD8-A2AA-8F972199E2E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFC894B1-43ED-45E9-98AE-C22578B617F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A80A1A8D-BD86-4405-970E-3CADFF16E331}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9D8784D-1CC4-4CFF-A6E6-55703B88AA09}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5462869E-999B-4E69-96D8-BF492B9E1EEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBFCF83A-BF7C-41B8-AE23-DF153AEFE1CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
